--- a/sensitive-data/excel.xlsx
+++ b/sensitive-data/excel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -106,6 +106,30 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">HE LEIDO Y ACEPTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">super-test</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">12345678</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">supert_test@supert_test.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">mega empresa de testing</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Las claves del marketing y la venta;La Elección de la Materia Prima;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Centro de I+d;Centro de Estética;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cosmetica Econatural capilar;cosas;Elaboración a terceros. Laboratorio. ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">No</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -202,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P2" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:P2"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P3" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:P3"/>
   <x:tableColumns count="16">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
@@ -645,11 +669,55 @@
         <x:v>26</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" hidden="0">
+      <x:c r="A3">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="2">
+        <x:v>45591.595787037</x:v>
+      </x:c>
+      <x:c r="C3" s="2">
+        <x:v>45591.5964467593</x:v>
+      </x:c>
+      <x:c r="D3" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E3" s="10" t="s"/>
+      <x:c r="F3" s="2"/>
+      <x:c r="G3" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H3" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I3" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J3" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K3" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L3" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M3" s="10" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="N3" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="O3" s="10" t="s"/>
+      <x:c r="P3" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="Redcd85970f2d496b"/>
+    <x:tablePart r:id="R1d90f2b769274321"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/sensitive-data/excel.xlsx
+++ b/sensitive-data/excel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -130,6 +130,24 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">No</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Nombre de prueba</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">111111111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">test@test.lan</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Empresa 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">I+d. Pasado, presente y Futuro;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">asdf</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -226,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P3" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:P3"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P4" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:P4"/>
   <x:tableColumns count="16">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
@@ -713,11 +731,57 @@
         <x:v>26</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" hidden="0">
+      <x:c r="A4">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="2">
+        <x:v>45607.8840162037</x:v>
+      </x:c>
+      <x:c r="C4" s="2">
+        <x:v>45607.8902662037</x:v>
+      </x:c>
+      <x:c r="D4" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E4" s="10" t="s"/>
+      <x:c r="F4" s="2"/>
+      <x:c r="G4" s="10" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H4" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I4" s="10" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J4" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K4" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="L4" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M4" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N4" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O4" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P4" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R1d90f2b769274321"/>
+    <x:tablePart r:id="Rf2e92b586195409e"/>
   </x:tableParts>
 </x:worksheet>
 </file>